--- a/Team-Data/2008-09/3-17-2008-09.xlsx
+++ b/Team-Data/2008-09/3-17-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,40 +733,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="n">
         <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.588</v>
+        <v>0.582</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J2" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
         <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>0.363</v>
       </c>
       <c r="O2" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P2" t="n">
         <v>25.3</v>
@@ -708,22 +775,22 @@
         <v>0.734</v>
       </c>
       <c r="R2" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S2" t="n">
         <v>29.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U2" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V2" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>4.7</v>
@@ -738,13 +805,13 @@
         <v>20.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -759,10 +826,10 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -786,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
@@ -795,31 +862,31 @@
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -851,82 +918,82 @@
         <v>67</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.731</v>
+        <v>0.746</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J3" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.392</v>
+        <v>0.387</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U3" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W3" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X3" t="n">
         <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -950,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -965,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
@@ -980,13 +1047,13 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -998,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="BB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
         <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1150,10 +1217,10 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
@@ -1168,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1177,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -1227,37 +1294,37 @@
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O5" t="n">
         <v>19.7</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.791</v>
+        <v>0.789</v>
       </c>
       <c r="R5" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
         <v>42.6</v>
@@ -1266,31 +1333,31 @@
         <v>20.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1317,7 +1384,7 @@
         <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
@@ -1326,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1335,16 +1402,16 @@
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1359,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -1397,22 +1464,22 @@
         <v>66</v>
       </c>
       <c r="E6" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.803</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.469</v>
@@ -1421,16 +1488,16 @@
         <v>8.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.391</v>
+        <v>0.39</v>
       </c>
       <c r="O6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
         <v>0.754</v>
@@ -1439,16 +1506,16 @@
         <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.7</v>
@@ -1457,22 +1524,22 @@
         <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,10 +1554,10 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1502,13 +1569,13 @@
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1520,13 +1587,13 @@
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU6" t="n">
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1535,13 +1602,13 @@
         <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
         <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,43 +1661,43 @@
         <v>38.2</v>
       </c>
       <c r="J7" t="n">
-        <v>82.8</v>
+        <v>83</v>
       </c>
       <c r="K7" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L7" t="n">
         <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O7" t="n">
         <v>18.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S7" t="n">
         <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U7" t="n">
         <v>21.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W7" t="n">
         <v>7.3</v>
@@ -1639,10 +1706,10 @@
         <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA7" t="n">
         <v>20</v>
@@ -1654,10 +1721,10 @@
         <v>1.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1675,13 +1742,13 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="n">
         <v>24</v>
@@ -1696,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
         <v>7</v>
@@ -1708,10 +1775,10 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
         <v>9</v>
@@ -1726,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1903,22 @@
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
       </c>
       <c r="AF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG8" t="n">
         <v>7</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
@@ -1881,10 +1948,10 @@
         <v>13</v>
       </c>
       <c r="AS8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT8" t="n">
         <v>13</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>14</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
         <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.508</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1958,31 +2025,31 @@
         <v>36.2</v>
       </c>
       <c r="J9" t="n">
-        <v>79.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O9" t="n">
         <v>16.8</v>
       </c>
       <c r="P9" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.752</v>
+        <v>0.749</v>
       </c>
       <c r="R9" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S9" t="n">
         <v>29.9</v>
@@ -1997,10 +2064,10 @@
         <v>12</v>
       </c>
       <c r="W9" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="n">
         <v>4</v>
@@ -2012,16 +2079,16 @@
         <v>19.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="AC9" t="n">
         <v>-0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
@@ -2033,13 +2100,13 @@
         <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
@@ -2048,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2060,13 +2127,13 @@
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2078,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
         <v>4</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
         <v>43</v>
       </c>
       <c r="G10" t="n">
-        <v>0.358</v>
+        <v>0.348</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J10" t="n">
         <v>85.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L10" t="n">
         <v>6.6</v>
@@ -2152,34 +2219,34 @@
         <v>17.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O10" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="P10" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R10" t="n">
         <v>11.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>6.5</v>
@@ -2191,25 +2258,25 @@
         <v>22.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.7</v>
+        <v>108.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
         <v>7</v>
@@ -2251,10 +2318,10 @@
         <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2266,10 +2333,10 @@
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -2385,10 +2452,10 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF11" t="n">
         <v>6</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>6</v>
@@ -2397,7 +2464,7 @@
         <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
         <v>21</v>
@@ -2442,10 +2509,10 @@
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2457,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2597,10 +2664,10 @@
         <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
@@ -2633,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -2668,55 +2735,55 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>0.239</v>
+        <v>0.242</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J13" t="n">
-        <v>82.09999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.436</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M13" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N13" t="n">
         <v>0.351</v>
       </c>
       <c r="O13" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.744</v>
+        <v>0.741</v>
       </c>
       <c r="R13" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S13" t="n">
         <v>28.9</v>
       </c>
       <c r="T13" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
@@ -2725,7 +2792,7 @@
         <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
         <v>6</v>
@@ -2734,19 +2801,19 @@
         <v>5.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="n">
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2761,7 +2828,7 @@
         <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
@@ -2770,10 +2837,10 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN13" t="n">
         <v>23</v>
@@ -2782,16 +2849,16 @@
         <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>27</v>
       </c>
       <c r="AR13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
@@ -2809,16 +2876,16 @@
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -2853,13 +2920,13 @@
         <v>66</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.788</v>
+        <v>0.803</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,19 +2935,19 @@
         <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O14" t="n">
         <v>20</v>
@@ -2889,28 +2956,28 @@
         <v>26</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
         <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
@@ -2925,19 +2992,19 @@
         <v>108.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
@@ -2955,10 +3022,10 @@
         <v>14</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
@@ -2967,7 +3034,7 @@
         <v>7</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
@@ -2988,16 +3055,16 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA14" t="n">
         <v>8</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3143,16 +3210,16 @@
         <v>26</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3307,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
@@ -3319,7 +3386,7 @@
         <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN16" t="n">
         <v>22</v>
@@ -3343,10 +3410,10 @@
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>4</v>
@@ -3358,10 +3425,10 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G17" t="n">
-        <v>0.456</v>
+        <v>0.449</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,10 +3481,10 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L17" t="n">
         <v>6.1</v>
@@ -3426,10 +3493,10 @@
         <v>16.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
         <v>25.8</v>
@@ -3441,16 +3508,16 @@
         <v>12.2</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
         <v>7.4</v>
@@ -3462,31 +3529,31 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>16</v>
@@ -3507,7 +3574,7 @@
         <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
         <v>9</v>
@@ -3519,25 +3586,25 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
         <v>13</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3549,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" t="n">
-        <v>0.299</v>
+        <v>0.303</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J18" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.442</v>
@@ -3605,40 +3672,40 @@
         <v>6.3</v>
       </c>
       <c r="M18" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N18" t="n">
         <v>0.344</v>
       </c>
       <c r="O18" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P18" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="R18" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S18" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T18" t="n">
         <v>42</v>
       </c>
       <c r="U18" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V18" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W18" t="n">
         <v>6.4</v>
       </c>
       <c r="X18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y18" t="n">
         <v>6.2</v>
@@ -3650,13 +3717,13 @@
         <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="n">
         <v>-4.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,7 +3735,7 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3686,31 +3753,31 @@
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
         <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3722,13 +3789,13 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA18" t="n">
         <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
@@ -3859,7 +3926,7 @@
         <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
         <v>4</v>
@@ -3874,7 +3941,7 @@
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3889,7 +3956,7 @@
         <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV19" t="n">
         <v>9</v>
@@ -3898,7 +3965,7 @@
         <v>21</v>
       </c>
       <c r="AX19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>16</v>
@@ -3910,7 +3977,7 @@
         <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>2.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4062,10 +4129,10 @@
         <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
@@ -4074,10 +4141,10 @@
         <v>28</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
         <v>22</v>
@@ -4244,7 +4311,7 @@
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4256,10 +4323,10 @@
         <v>11</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,7 +4463,7 @@
         <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -4405,10 +4472,10 @@
         <v>10</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM22" t="n">
         <v>30</v>
@@ -4417,7 +4484,7 @@
         <v>21</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>10</v>
@@ -4450,7 +4517,7 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -4488,19 +4555,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" t="n">
         <v>49</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>0.731</v>
+        <v>0.742</v>
       </c>
       <c r="H23" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I23" t="n">
         <v>36</v>
@@ -4509,7 +4576,7 @@
         <v>78.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
         <v>10.3</v>
@@ -4521,13 +4588,13 @@
         <v>0.388</v>
       </c>
       <c r="O23" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P23" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
         <v>10.1</v>
@@ -4539,7 +4606,7 @@
         <v>43.3</v>
       </c>
       <c r="U23" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V23" t="n">
         <v>14.3</v>
@@ -4554,40 +4621,40 @@
         <v>3.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4596,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>10</v>
@@ -4626,7 +4693,7 @@
         <v>24</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4635,7 +4702,7 @@
         <v>9</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="n">
         <v>31</v>
       </c>
       <c r="G24" t="n">
-        <v>0.523</v>
+        <v>0.516</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,7 +4755,7 @@
         <v>36.7</v>
       </c>
       <c r="J24" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K24" t="n">
         <v>0.457</v>
@@ -4697,16 +4764,16 @@
         <v>4.1</v>
       </c>
       <c r="M24" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.314</v>
+        <v>0.315</v>
       </c>
       <c r="O24" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P24" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q24" t="n">
         <v>0.739</v>
@@ -4718,13 +4785,13 @@
         <v>29.4</v>
       </c>
       <c r="T24" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U24" t="n">
         <v>20.4</v>
       </c>
       <c r="V24" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
@@ -4736,10 +4803,10 @@
         <v>4.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB24" t="n">
         <v>96.59999999999999</v>
@@ -4769,10 +4836,10 @@
         <v>16</v>
       </c>
       <c r="AK24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
         <v>28</v>
@@ -4799,7 +4866,7 @@
         <v>10</v>
       </c>
       <c r="AU24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV24" t="n">
         <v>18</v>
@@ -4814,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,7 +5009,7 @@
         <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4984,7 +5051,7 @@
         <v>3</v>
       </c>
       <c r="AV25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW25" t="n">
         <v>21</v>
@@ -5005,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
         <v>42</v>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.636</v>
+        <v>0.627</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N26" t="n">
         <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U26" t="n">
         <v>20.2</v>
@@ -5100,19 +5167,19 @@
         <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
@@ -5121,16 +5188,16 @@
         <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK26" t="n">
         <v>8</v>
@@ -5139,16 +5206,16 @@
         <v>10</v>
       </c>
       <c r="AM26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN26" t="n">
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>18</v>
@@ -5160,13 +5227,13 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5178,16 +5245,16 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" t="n">
         <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
-        <v>0.209</v>
+        <v>0.212</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
         <v>6.9</v>
@@ -5246,28 +5313,28 @@
         <v>19</v>
       </c>
       <c r="N27" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P27" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.803</v>
+        <v>0.802</v>
       </c>
       <c r="R27" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S27" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T27" t="n">
         <v>38.8</v>
       </c>
       <c r="U27" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
         <v>15.8</v>
@@ -5279,22 +5346,22 @@
         <v>4.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA27" t="n">
         <v>21.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5306,16 +5373,16 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>12</v>
@@ -5330,22 +5397,22 @@
         <v>4</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
         <v>30</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5354,7 +5421,7 @@
         <v>23</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="n">
         <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>0.672</v>
+        <v>0.667</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J28" t="n">
         <v>79.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
         <v>7.9</v>
@@ -5428,7 +5495,7 @@
         <v>19.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.394</v>
+        <v>0.396</v>
       </c>
       <c r="O28" t="n">
         <v>15.1</v>
@@ -5452,10 +5519,10 @@
         <v>21.7</v>
       </c>
       <c r="V28" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="W28" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X28" t="n">
         <v>4.2</v>
@@ -5470,13 +5537,13 @@
         <v>18.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>97</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5488,13 +5555,13 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5527,7 +5594,7 @@
         <v>20</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5551,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5667,13 +5734,13 @@
         <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>18</v>
@@ -5685,7 +5752,7 @@
         <v>24</v>
       </c>
       <c r="AM29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
         <v>11</v>
@@ -5706,7 +5773,7 @@
         <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5718,13 +5785,13 @@
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" t="n">
         <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.618</v>
+        <v>0.612</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5789,10 +5856,10 @@
         <v>4.8</v>
       </c>
       <c r="M30" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O30" t="n">
         <v>21.6</v>
@@ -5807,19 +5874,19 @@
         <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T30" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U30" t="n">
         <v>24.8</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X30" t="n">
         <v>4.7</v>
@@ -5837,13 +5904,13 @@
         <v>103.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>10</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5888,13 +5955,13 @@
         <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
@@ -5909,7 +5976,7 @@
         <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
@@ -5944,64 +6011,64 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="n">
         <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" t="n">
-        <v>0.235</v>
+        <v>0.239</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L31" t="n">
         <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O31" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P31" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R31" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S31" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="T31" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U31" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V31" t="n">
         <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
         <v>4.2</v>
@@ -6013,16 +6080,16 @@
         <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.5</v>
+        <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6037,13 +6104,13 @@
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6070,16 +6137,16 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6094,7 +6161,7 @@
         <v>28</v>
       </c>
       <c r="BB31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-17-2008-09</t>
+          <t>2009-03-17</t>
         </is>
       </c>
     </row>
